--- a/data/pca/factorExposure/factorExposure_2008-12-15.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-15.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01872558755291481</v>
+        <v>-0.01740263263685731</v>
       </c>
       <c r="C2">
-        <v>0.01252402441710171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01418039907161048</v>
+      </c>
+      <c r="D2">
+        <v>0.01960698785561307</v>
+      </c>
+      <c r="E2">
+        <v>-0.01722328974371697</v>
+      </c>
+      <c r="F2">
+        <v>0.009021527974186639</v>
+      </c>
+      <c r="G2">
+        <v>-0.007012977893537868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08044530661926183</v>
+        <v>-0.08379829787222019</v>
       </c>
       <c r="C4">
-        <v>0.08544275149633221</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08779648859841115</v>
+      </c>
+      <c r="D4">
+        <v>-0.05194787093963209</v>
+      </c>
+      <c r="E4">
+        <v>-0.0372285259418085</v>
+      </c>
+      <c r="F4">
+        <v>-0.002125950725487577</v>
+      </c>
+      <c r="G4">
+        <v>-0.04404060914435732</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005017690052217433</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>-0.0007576838021684293</v>
+      </c>
+      <c r="D5">
+        <v>0.0001613758179015675</v>
+      </c>
+      <c r="E5">
+        <v>0.004614067632531825</v>
+      </c>
+      <c r="F5">
+        <v>-0.003739124019821428</v>
+      </c>
+      <c r="G5">
+        <v>0.003792864993928267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.1685057904808135</v>
+        <v>-0.169564378200057</v>
       </c>
       <c r="C6">
-        <v>-0.01705566947815519</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.007929078258724876</v>
+      </c>
+      <c r="D6">
+        <v>-0.06399279612556465</v>
+      </c>
+      <c r="E6">
+        <v>0.0559226682359391</v>
+      </c>
+      <c r="F6">
+        <v>-0.0551592673379102</v>
+      </c>
+      <c r="G6">
+        <v>-0.03321118874093217</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05007663288538468</v>
+        <v>-0.05253871267324826</v>
       </c>
       <c r="C7">
-        <v>0.06114210182999734</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.06220810488184761</v>
+      </c>
+      <c r="D7">
+        <v>-0.05421396292530008</v>
+      </c>
+      <c r="E7">
+        <v>-0.06983304313480826</v>
+      </c>
+      <c r="F7">
+        <v>0.04592854221579681</v>
+      </c>
+      <c r="G7">
+        <v>-0.05807098692837576</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04674704722106915</v>
+        <v>-0.04563670573368351</v>
       </c>
       <c r="C8">
-        <v>0.05615085511317155</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.0539159635490792</v>
+      </c>
+      <c r="D8">
+        <v>0.01878581444266369</v>
+      </c>
+      <c r="E8">
+        <v>-0.02901419239628155</v>
+      </c>
+      <c r="F8">
+        <v>0.01383262865450293</v>
+      </c>
+      <c r="G8">
+        <v>0.02010058634426981</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05663473048453553</v>
+        <v>-0.06193466186038991</v>
       </c>
       <c r="C9">
-        <v>0.09432395250385815</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09416631221359369</v>
+      </c>
+      <c r="D9">
+        <v>-0.0872863698031658</v>
+      </c>
+      <c r="E9">
+        <v>-0.05120534930119537</v>
+      </c>
+      <c r="F9">
+        <v>-0.01153579383108869</v>
+      </c>
+      <c r="G9">
+        <v>-0.02095310529992982</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1201079577952029</v>
+        <v>-0.1044384059758346</v>
       </c>
       <c r="C10">
-        <v>-0.1519426097092257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1364621928766027</v>
+      </c>
+      <c r="D10">
+        <v>0.08116611993121907</v>
+      </c>
+      <c r="E10">
+        <v>-0.05436364797650073</v>
+      </c>
+      <c r="F10">
+        <v>0.02865493792188605</v>
+      </c>
+      <c r="G10">
+        <v>0.04164652185065981</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.07910312288346658</v>
+        <v>-0.07642608187775765</v>
       </c>
       <c r="C11">
-        <v>0.1375253813904899</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1365925570490892</v>
+      </c>
+      <c r="D11">
+        <v>-0.04963510730942274</v>
+      </c>
+      <c r="E11">
+        <v>-0.06347881989142143</v>
+      </c>
+      <c r="F11">
+        <v>-0.007086598494655153</v>
+      </c>
+      <c r="G11">
+        <v>-0.0008456978823061799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.07997605434957389</v>
+        <v>-0.07591931979319756</v>
       </c>
       <c r="C12">
-        <v>0.1647393095527715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1615131059463057</v>
+      </c>
+      <c r="D12">
+        <v>-0.04814324803515112</v>
+      </c>
+      <c r="E12">
+        <v>-0.06554180869788785</v>
+      </c>
+      <c r="F12">
+        <v>0.02871139812512669</v>
+      </c>
+      <c r="G12">
+        <v>-0.009508136440512632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.03961790592014547</v>
+        <v>-0.04183763545208216</v>
       </c>
       <c r="C13">
-        <v>0.07103219987424342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07531231569162536</v>
+      </c>
+      <c r="D13">
+        <v>-0.03402083719887779</v>
+      </c>
+      <c r="E13">
+        <v>-0.07421114210882229</v>
+      </c>
+      <c r="F13">
+        <v>0.03648673247579988</v>
+      </c>
+      <c r="G13">
+        <v>-0.02033366812039358</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.02028869239258865</v>
+        <v>-0.02279394085131751</v>
       </c>
       <c r="C14">
-        <v>0.05112428051344423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05333946465096947</v>
+      </c>
+      <c r="D14">
+        <v>-0.04413240329694117</v>
+      </c>
+      <c r="E14">
+        <v>-0.06919716351206633</v>
+      </c>
+      <c r="F14">
+        <v>-0.003466649330794332</v>
+      </c>
+      <c r="G14">
+        <v>0.0121189112826969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.0326386580145601</v>
+        <v>-0.03259094884374974</v>
       </c>
       <c r="C15">
-        <v>0.0662765147548226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06398372184838448</v>
+      </c>
+      <c r="D15">
+        <v>-0.04623354901807123</v>
+      </c>
+      <c r="E15">
+        <v>-0.0159200519023641</v>
+      </c>
+      <c r="F15">
+        <v>0.02988525563533089</v>
+      </c>
+      <c r="G15">
+        <v>-0.008422380108997075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0577653361079733</v>
+        <v>-0.05608744677189089</v>
       </c>
       <c r="C16">
-        <v>0.1584477303089804</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1575449299268916</v>
+      </c>
+      <c r="D16">
+        <v>-0.04590101284135329</v>
+      </c>
+      <c r="E16">
+        <v>-0.0502908316974395</v>
+      </c>
+      <c r="F16">
+        <v>-0.01932939643311079</v>
+      </c>
+      <c r="G16">
+        <v>0.006289913243795633</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008377879415673117</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.004072241325822603</v>
+      </c>
+      <c r="D17">
+        <v>0.003151737276914477</v>
+      </c>
+      <c r="E17">
+        <v>0.01035807885669845</v>
+      </c>
+      <c r="F17">
+        <v>0.01382790351412668</v>
+      </c>
+      <c r="G17">
+        <v>0.01532825231372599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04578225468680946</v>
+        <v>-0.05631338130590072</v>
       </c>
       <c r="C18">
-        <v>0.05446061067985406</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04713054239922226</v>
+      </c>
+      <c r="D18">
+        <v>-0.0001850421750000719</v>
+      </c>
+      <c r="E18">
+        <v>0.06109680550294989</v>
+      </c>
+      <c r="F18">
+        <v>-0.02448430133277393</v>
+      </c>
+      <c r="G18">
+        <v>-0.002475770390639176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05851605693153073</v>
+        <v>-0.05738926609520182</v>
       </c>
       <c r="C20">
-        <v>0.107578096125172</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1045435328475781</v>
+      </c>
+      <c r="D20">
+        <v>-0.06570426243259581</v>
+      </c>
+      <c r="E20">
+        <v>-0.05116602026892975</v>
+      </c>
+      <c r="F20">
+        <v>0.02251839236568911</v>
+      </c>
+      <c r="G20">
+        <v>-0.003664390436220637</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04289194747340608</v>
+        <v>-0.0449613675123066</v>
       </c>
       <c r="C21">
-        <v>0.06941218513199791</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.06535059530238631</v>
+      </c>
+      <c r="D21">
+        <v>-0.0268561560424895</v>
+      </c>
+      <c r="E21">
+        <v>-0.05366543937064298</v>
+      </c>
+      <c r="F21">
+        <v>-0.006173214583856023</v>
+      </c>
+      <c r="G21">
+        <v>-0.03063683159521996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04475149438345857</v>
+        <v>-0.04517736257438158</v>
       </c>
       <c r="C22">
-        <v>0.03786911475998885</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.03990304196188062</v>
+      </c>
+      <c r="D22">
+        <v>0.1117312878085799</v>
+      </c>
+      <c r="E22">
+        <v>0.05892328637840456</v>
+      </c>
+      <c r="F22">
+        <v>-0.1514701708356725</v>
+      </c>
+      <c r="G22">
+        <v>0.06948937488691982</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04476157202887321</v>
+        <v>-0.04518613456139887</v>
       </c>
       <c r="C23">
-        <v>0.03786191400111947</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.03989679349978948</v>
+      </c>
+      <c r="D23">
+        <v>0.1117658448244384</v>
+      </c>
+      <c r="E23">
+        <v>0.05892305608796589</v>
+      </c>
+      <c r="F23">
+        <v>-0.1514982688655739</v>
+      </c>
+      <c r="G23">
+        <v>0.06955791675402929</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.0656423945717093</v>
+        <v>-0.06416550353977743</v>
       </c>
       <c r="C24">
-        <v>0.1432824990512724</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.139950639322836</v>
+      </c>
+      <c r="D24">
+        <v>-0.04957306283143009</v>
+      </c>
+      <c r="E24">
+        <v>-0.06009232430263448</v>
+      </c>
+      <c r="F24">
+        <v>0.003472774949644653</v>
+      </c>
+      <c r="G24">
+        <v>-0.003567236231209568</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07299788162834621</v>
+        <v>-0.07030632869551787</v>
       </c>
       <c r="C25">
-        <v>0.1282562303828226</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1258111847173883</v>
+      </c>
+      <c r="D25">
+        <v>-0.05067128104286302</v>
+      </c>
+      <c r="E25">
+        <v>-0.0818174803385926</v>
+      </c>
+      <c r="F25">
+        <v>0.02685060933538411</v>
+      </c>
+      <c r="G25">
+        <v>-0.02828282038872307</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05704109066541257</v>
+        <v>-0.06093149668684675</v>
       </c>
       <c r="C26">
-        <v>0.07419383151871846</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.07803051357368532</v>
+      </c>
+      <c r="D26">
+        <v>-0.02215059503509227</v>
+      </c>
+      <c r="E26">
+        <v>-0.07306188724375795</v>
+      </c>
+      <c r="F26">
+        <v>0.02791183184815901</v>
+      </c>
+      <c r="G26">
+        <v>-0.004464297637457063</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1723540278671209</v>
+        <v>-0.1766868789930077</v>
       </c>
       <c r="C28">
-        <v>-0.2256989881758833</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2278557814417128</v>
+      </c>
+      <c r="D28">
+        <v>-0.01257138784643421</v>
+      </c>
+      <c r="E28">
+        <v>-0.1494526937957951</v>
+      </c>
+      <c r="F28">
+        <v>0.05828142615200019</v>
+      </c>
+      <c r="G28">
+        <v>0.0218983847152381</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.0257971471251015</v>
+        <v>-0.02717542392140402</v>
       </c>
       <c r="C29">
-        <v>0.05514967520818882</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05523927782850126</v>
+      </c>
+      <c r="D29">
+        <v>-0.01200936787732503</v>
+      </c>
+      <c r="E29">
+        <v>-0.07230928674138461</v>
+      </c>
+      <c r="F29">
+        <v>-0.006897496880671227</v>
+      </c>
+      <c r="G29">
+        <v>0.01283990964178591</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02993678901216252</v>
+        <v>-0.03356699893725282</v>
       </c>
       <c r="C30">
-        <v>0.07083338282040473</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07510024696969646</v>
+      </c>
+      <c r="D30">
+        <v>-0.1271479864613322</v>
+      </c>
+      <c r="E30">
+        <v>-0.06729616708519533</v>
+      </c>
+      <c r="F30">
+        <v>0.07061554982822942</v>
+      </c>
+      <c r="G30">
+        <v>-0.0175588188628403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.05430350645663243</v>
+        <v>-0.0531805570586688</v>
       </c>
       <c r="C31">
-        <v>0.03729872273368168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03964372925054362</v>
+      </c>
+      <c r="D31">
+        <v>0.004485753024677901</v>
+      </c>
+      <c r="E31">
+        <v>-0.01642293364369996</v>
+      </c>
+      <c r="F31">
+        <v>-0.05207778800884768</v>
+      </c>
+      <c r="G31">
+        <v>-0.01127363992935641</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04401924682661632</v>
+        <v>-0.04745275889857759</v>
       </c>
       <c r="C32">
-        <v>0.05817836325275347</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.05625837960745504</v>
+      </c>
+      <c r="D32">
+        <v>-0.01415031418085193</v>
+      </c>
+      <c r="E32">
+        <v>-0.0009001838929308979</v>
+      </c>
+      <c r="F32">
+        <v>0.04336583268372501</v>
+      </c>
+      <c r="G32">
+        <v>-0.001777576568227945</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07843361287351909</v>
+        <v>-0.08284615174998133</v>
       </c>
       <c r="C33">
-        <v>0.1143937214418634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.1225109096654767</v>
+      </c>
+      <c r="D33">
+        <v>-0.05633943318555023</v>
+      </c>
+      <c r="E33">
+        <v>-0.05664074140893319</v>
+      </c>
+      <c r="F33">
+        <v>0.0002340232835569091</v>
+      </c>
+      <c r="G33">
+        <v>0.01574200911838872</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05178979813552458</v>
+        <v>-0.05112728926526071</v>
       </c>
       <c r="C34">
-        <v>0.1346030042350802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1334319300784874</v>
+      </c>
+      <c r="D34">
+        <v>-0.09176734468302061</v>
+      </c>
+      <c r="E34">
+        <v>-0.04772180302108674</v>
+      </c>
+      <c r="F34">
+        <v>-0.01866032302616839</v>
+      </c>
+      <c r="G34">
+        <v>0.03015652660027657</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02848226289358109</v>
+        <v>-0.03056191099353002</v>
       </c>
       <c r="C35">
-        <v>0.01896551871636893</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02177131723669869</v>
+      </c>
+      <c r="D35">
+        <v>-0.01429672551858087</v>
+      </c>
+      <c r="E35">
+        <v>-0.02058151392590193</v>
+      </c>
+      <c r="F35">
+        <v>0.009259975161371319</v>
+      </c>
+      <c r="G35">
+        <v>0.02293664616874837</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.02780606988470825</v>
+        <v>-0.0300874639171919</v>
       </c>
       <c r="C36">
-        <v>0.05574849120712327</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05412113882125972</v>
+      </c>
+      <c r="D36">
+        <v>-0.07436305662659097</v>
+      </c>
+      <c r="E36">
+        <v>0.00869554677532197</v>
+      </c>
+      <c r="F36">
+        <v>-0.02526344547113202</v>
+      </c>
+      <c r="G36">
+        <v>0.06067007430444241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0004219879544481496</v>
+        <v>-0.004569312140429473</v>
       </c>
       <c r="C37">
-        <v>-0.0004222619295206799</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.007554663691164489</v>
+      </c>
+      <c r="D37">
+        <v>-0.000862060000493999</v>
+      </c>
+      <c r="E37">
+        <v>-0.01224432242060232</v>
+      </c>
+      <c r="F37">
+        <v>0.0001697846075598368</v>
+      </c>
+      <c r="G37">
+        <v>-0.004825204740262164</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.07867771293643649</v>
+        <v>-0.07393723910991276</v>
       </c>
       <c r="C39">
-        <v>0.1588317363942759</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1521084130821956</v>
+      </c>
+      <c r="D39">
+        <v>-0.006031605645999318</v>
+      </c>
+      <c r="E39">
+        <v>-0.1181568196476941</v>
+      </c>
+      <c r="F39">
+        <v>-0.003874415155677336</v>
+      </c>
+      <c r="G39">
+        <v>-0.02249455602464539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05060842987820687</v>
+        <v>-0.05355408802925132</v>
       </c>
       <c r="C40">
-        <v>0.07474136484798218</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.07931489300306782</v>
+      </c>
+      <c r="D40">
+        <v>-0.01637880296719487</v>
+      </c>
+      <c r="E40">
+        <v>-0.03583956940325497</v>
+      </c>
+      <c r="F40">
+        <v>0.05244549255089084</v>
+      </c>
+      <c r="G40">
+        <v>0.03612841032847333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03042314950727085</v>
+        <v>-0.03014225533159001</v>
       </c>
       <c r="C41">
-        <v>0.02320059589893299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.02503084327814161</v>
+      </c>
+      <c r="D41">
+        <v>0.007033265982961177</v>
+      </c>
+      <c r="E41">
+        <v>0.01268136016795922</v>
+      </c>
+      <c r="F41">
+        <v>0.009900887150536834</v>
+      </c>
+      <c r="G41">
+        <v>0.006870428542420444</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04458403984953844</v>
+        <v>-0.04244420698675368</v>
       </c>
       <c r="C43">
-        <v>0.04119898619349069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03928655426500141</v>
+      </c>
+      <c r="D43">
+        <v>0.01614699813129961</v>
+      </c>
+      <c r="E43">
+        <v>-0.01739736521845378</v>
+      </c>
+      <c r="F43">
+        <v>-0.03922235906968052</v>
+      </c>
+      <c r="G43">
+        <v>0.0197226017578898</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05515952222998494</v>
+        <v>-0.05932408181715039</v>
       </c>
       <c r="C44">
-        <v>0.09231820594370556</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09522805566277846</v>
+      </c>
+      <c r="D44">
+        <v>-0.3224582502044263</v>
+      </c>
+      <c r="E44">
+        <v>-0.07156947074636165</v>
+      </c>
+      <c r="F44">
+        <v>-0.004211849275512883</v>
+      </c>
+      <c r="G44">
+        <v>0.1086534015460938</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0006973540356055271</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.001127811618034285</v>
+      </c>
+      <c r="D45">
+        <v>0.001197759834858483</v>
+      </c>
+      <c r="E45">
+        <v>-0.001790962616614234</v>
+      </c>
+      <c r="F45">
+        <v>-0.002393326285189761</v>
+      </c>
+      <c r="G45">
+        <v>-0.007187935610023935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02856962305140993</v>
+        <v>-0.02977583768555383</v>
       </c>
       <c r="C46">
-        <v>0.04500892191563672</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04248101122783961</v>
+      </c>
+      <c r="D46">
+        <v>0.006879902672647576</v>
+      </c>
+      <c r="E46">
+        <v>-0.06135275913533816</v>
+      </c>
+      <c r="F46">
+        <v>-0.03029219529514701</v>
+      </c>
+      <c r="G46">
+        <v>-0.0007615083263488704</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05595653101907426</v>
+        <v>-0.05338907987021947</v>
       </c>
       <c r="C47">
-        <v>0.0430266239384996</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.04190569126539435</v>
+      </c>
+      <c r="D47">
+        <v>0.04236672086011145</v>
+      </c>
+      <c r="E47">
+        <v>0.01908923981671814</v>
+      </c>
+      <c r="F47">
+        <v>-0.08361640821406988</v>
+      </c>
+      <c r="G47">
+        <v>0.007027279294647326</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.04863130687596711</v>
+        <v>-0.05019865303187801</v>
       </c>
       <c r="C48">
-        <v>0.07027885613989283</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.07043429772214088</v>
+      </c>
+      <c r="D48">
+        <v>-0.03710431999401911</v>
+      </c>
+      <c r="E48">
+        <v>-0.05812769015108457</v>
+      </c>
+      <c r="F48">
+        <v>0.0005348734947424016</v>
+      </c>
+      <c r="G48">
+        <v>-0.04716332710252067</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1840491954754082</v>
+        <v>-0.1913710674330849</v>
       </c>
       <c r="C49">
-        <v>-0.0284446667467086</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02541385397059688</v>
+      </c>
+      <c r="D49">
+        <v>-0.0258411073107982</v>
+      </c>
+      <c r="E49">
+        <v>0.01109280380315983</v>
+      </c>
+      <c r="F49">
+        <v>0.130949858006494</v>
+      </c>
+      <c r="G49">
+        <v>-0.02857315164073981</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.05385204233628944</v>
+        <v>-0.05341718833857825</v>
       </c>
       <c r="C50">
-        <v>0.03657387363146532</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03947531755359846</v>
+      </c>
+      <c r="D50">
+        <v>-0.01063359798353593</v>
+      </c>
+      <c r="E50">
+        <v>-0.008503621941477418</v>
+      </c>
+      <c r="F50">
+        <v>-0.04494656149504796</v>
+      </c>
+      <c r="G50">
+        <v>-0.02174034913993973</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1399640634412203</v>
+        <v>-0.1351372259163048</v>
       </c>
       <c r="C52">
-        <v>0.03643163063591233</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03477625782967322</v>
+      </c>
+      <c r="D52">
+        <v>-0.02716181381495033</v>
+      </c>
+      <c r="E52">
+        <v>0.08680739690670801</v>
+      </c>
+      <c r="F52">
+        <v>-0.1219406704626886</v>
+      </c>
+      <c r="G52">
+        <v>-0.0265997303567501</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.1668827676508627</v>
+        <v>-0.1608249650614738</v>
       </c>
       <c r="C53">
-        <v>-0.01153921760553567</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.009966310674741871</v>
+      </c>
+      <c r="D53">
+        <v>-0.04407367904399768</v>
+      </c>
+      <c r="E53">
+        <v>0.1256773503886255</v>
+      </c>
+      <c r="F53">
+        <v>-0.1596868211583551</v>
+      </c>
+      <c r="G53">
+        <v>-0.06240499766813672</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01328516229831009</v>
+        <v>-0.01422661217135342</v>
       </c>
       <c r="C54">
-        <v>0.04011210998060033</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04151517241297139</v>
+      </c>
+      <c r="D54">
+        <v>-0.01638733854748672</v>
+      </c>
+      <c r="E54">
+        <v>-0.03839759895979472</v>
+      </c>
+      <c r="F54">
+        <v>0.0009115588509590418</v>
+      </c>
+      <c r="G54">
+        <v>-0.003527733518839137</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1212251582246201</v>
+        <v>-0.1194257772413013</v>
       </c>
       <c r="C55">
-        <v>0.01794068647468575</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01884007650795631</v>
+      </c>
+      <c r="D55">
+        <v>-0.03330862438168312</v>
+      </c>
+      <c r="E55">
+        <v>0.05687504283518887</v>
+      </c>
+      <c r="F55">
+        <v>-0.1858498387034007</v>
+      </c>
+      <c r="G55">
+        <v>-0.05822096896851349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1802325479416045</v>
+        <v>-0.1755715025377374</v>
       </c>
       <c r="C56">
-        <v>-0.009521901964143492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01127518672002375</v>
+      </c>
+      <c r="D56">
+        <v>-0.002874088336350233</v>
+      </c>
+      <c r="E56">
+        <v>0.1567990612792022</v>
+      </c>
+      <c r="F56">
+        <v>-0.1661894539835577</v>
+      </c>
+      <c r="G56">
+        <v>-0.08732664630398541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04117862520030702</v>
+        <v>-0.0412137405519874</v>
       </c>
       <c r="C58">
-        <v>0.09735283123622067</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1078212669846358</v>
+      </c>
+      <c r="D58">
+        <v>0.01098725784721353</v>
+      </c>
+      <c r="E58">
+        <v>-0.04175676663453134</v>
+      </c>
+      <c r="F58">
+        <v>-0.005928520289234333</v>
+      </c>
+      <c r="G58">
+        <v>0.000603872856399143</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1809304237848957</v>
+        <v>-0.1873382907832705</v>
       </c>
       <c r="C59">
-        <v>-0.1623546428294626</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1686520818920428</v>
+      </c>
+      <c r="D59">
+        <v>0.09492102570384346</v>
+      </c>
+      <c r="E59">
+        <v>-0.07655400923822864</v>
+      </c>
+      <c r="F59">
+        <v>0.02972035933448928</v>
+      </c>
+      <c r="G59">
+        <v>0.007355660161634236</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.2068093778811778</v>
+        <v>-0.2053903686081503</v>
       </c>
       <c r="C60">
-        <v>-0.0004430901331407584</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.002512280418644864</v>
+      </c>
+      <c r="D60">
+        <v>0.1061232578667801</v>
+      </c>
+      <c r="E60">
+        <v>0.1405727084881929</v>
+      </c>
+      <c r="F60">
+        <v>0.0707249362889997</v>
+      </c>
+      <c r="G60">
+        <v>-0.08120834130773853</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06120246421127543</v>
+        <v>-0.05939476886668651</v>
       </c>
       <c r="C61">
-        <v>0.1344516718318571</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1310668086252246</v>
+      </c>
+      <c r="D61">
+        <v>-0.01207694856044423</v>
+      </c>
+      <c r="E61">
+        <v>-0.07498067799115271</v>
+      </c>
+      <c r="F61">
+        <v>0.02954482741274151</v>
+      </c>
+      <c r="G61">
+        <v>-0.01176166895898592</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1697914694431985</v>
+        <v>-0.1661377796556427</v>
       </c>
       <c r="C62">
-        <v>-0.005510388977447882</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.005715427966527605</v>
+      </c>
+      <c r="D62">
+        <v>-0.004861442086362226</v>
+      </c>
+      <c r="E62">
+        <v>0.1345212123781244</v>
+      </c>
+      <c r="F62">
+        <v>-0.1561181126932077</v>
+      </c>
+      <c r="G62">
+        <v>-0.06500925741316463</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04174125021944855</v>
+        <v>-0.04429583424438378</v>
       </c>
       <c r="C63">
-        <v>0.07958166525159882</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.0830919696393079</v>
+      </c>
+      <c r="D63">
+        <v>-0.02198368777328813</v>
+      </c>
+      <c r="E63">
+        <v>-0.0389450886710208</v>
+      </c>
+      <c r="F63">
+        <v>0.008794241376594732</v>
+      </c>
+      <c r="G63">
+        <v>0.03061119017863112</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1138472398370716</v>
+        <v>-0.1111727869436462</v>
       </c>
       <c r="C64">
-        <v>0.06340294710591741</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06542245127060695</v>
+      </c>
+      <c r="D64">
+        <v>-0.01926283724040911</v>
+      </c>
+      <c r="E64">
+        <v>0.05210046833684291</v>
+      </c>
+      <c r="F64">
+        <v>0.01454083582795116</v>
+      </c>
+      <c r="G64">
+        <v>-0.02850468759793189</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1594386970513106</v>
+        <v>-0.1622674658582988</v>
       </c>
       <c r="C65">
-        <v>-0.05559647540091597</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04499586570554769</v>
+      </c>
+      <c r="D65">
+        <v>-0.06459991515479538</v>
+      </c>
+      <c r="E65">
+        <v>-0.0001208700091496471</v>
+      </c>
+      <c r="F65">
+        <v>-0.05234003394860155</v>
+      </c>
+      <c r="G65">
+        <v>-0.0296361713862553</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.09673145347620926</v>
+        <v>-0.09228475790192263</v>
       </c>
       <c r="C66">
-        <v>0.1320784344258071</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1304245633112205</v>
+      </c>
+      <c r="D66">
+        <v>-0.0267735079308115</v>
+      </c>
+      <c r="E66">
+        <v>-0.1017111575090764</v>
+      </c>
+      <c r="F66">
+        <v>0.01678077827345395</v>
+      </c>
+      <c r="G66">
+        <v>0.0114960013982779</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.0512958400079471</v>
+        <v>-0.04448123357470297</v>
       </c>
       <c r="C67">
-        <v>0.0832984007544198</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07656695840764366</v>
+      </c>
+      <c r="D67">
+        <v>0.08001880632129148</v>
+      </c>
+      <c r="E67">
+        <v>0.03003312204868312</v>
+      </c>
+      <c r="F67">
+        <v>-0.05248048169042976</v>
+      </c>
+      <c r="G67">
+        <v>0.04624227147374675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.147000088301491</v>
+        <v>-0.1472073513889146</v>
       </c>
       <c r="C68">
-        <v>-0.2519498361368804</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.2475969303734194</v>
+      </c>
+      <c r="D68">
+        <v>-0.02929412765406452</v>
+      </c>
+      <c r="E68">
+        <v>-0.1548506714502892</v>
+      </c>
+      <c r="F68">
+        <v>0.06113738964914481</v>
+      </c>
+      <c r="G68">
+        <v>-0.0494060433298111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03899496141835256</v>
+        <v>-0.03699213962308485</v>
       </c>
       <c r="C69">
-        <v>0.01652185699694387</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.01931483339670859</v>
+      </c>
+      <c r="D69">
+        <v>0.01911639892290876</v>
+      </c>
+      <c r="E69">
+        <v>0.05926742684639449</v>
+      </c>
+      <c r="F69">
+        <v>-0.05036220872075556</v>
+      </c>
+      <c r="G69">
+        <v>0.0422127370943738</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07632089268415962</v>
+        <v>-0.07377066718777851</v>
       </c>
       <c r="C70">
-        <v>0.09222357979181221</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.09481023520526388</v>
+      </c>
+      <c r="D70">
+        <v>0.653333623409878</v>
+      </c>
+      <c r="E70">
+        <v>0.1729705247737812</v>
+      </c>
+      <c r="F70">
+        <v>0.2225602160339733</v>
+      </c>
+      <c r="G70">
+        <v>-0.4250874383617493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1689754796891595</v>
+        <v>-0.1711511323230645</v>
       </c>
       <c r="C71">
-        <v>-0.2538343700792294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2512838414343502</v>
+      </c>
+      <c r="D71">
+        <v>-0.01907234799070763</v>
+      </c>
+      <c r="E71">
+        <v>-0.1605663045152896</v>
+      </c>
+      <c r="F71">
+        <v>0.07324910819137145</v>
+      </c>
+      <c r="G71">
+        <v>-0.0420278618228376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1431886621647132</v>
+        <v>-0.1483439359070832</v>
       </c>
       <c r="C72">
-        <v>0.01126777711977254</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.01012403467503675</v>
+      </c>
+      <c r="D72">
+        <v>-0.03158987071814412</v>
+      </c>
+      <c r="E72">
+        <v>0.04150385667597343</v>
+      </c>
+      <c r="F72">
+        <v>-0.1145395740863453</v>
+      </c>
+      <c r="G72">
+        <v>0.03225157599420324</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1888580952871067</v>
+        <v>-0.1984476518645397</v>
       </c>
       <c r="C73">
-        <v>0.01695537692015736</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.01913732337280503</v>
+      </c>
+      <c r="D73">
+        <v>-0.008216780181814458</v>
+      </c>
+      <c r="E73">
+        <v>0.1066146353460965</v>
+      </c>
+      <c r="F73">
+        <v>-0.0054093131458728</v>
+      </c>
+      <c r="G73">
+        <v>0.0317198675816421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08475815609712417</v>
+        <v>-0.08428195712973646</v>
       </c>
       <c r="C74">
-        <v>0.007658736302520138</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01352035167145022</v>
+      </c>
+      <c r="D74">
+        <v>-0.05093399897769529</v>
+      </c>
+      <c r="E74">
+        <v>0.09428664316457502</v>
+      </c>
+      <c r="F74">
+        <v>-0.0613047182818052</v>
+      </c>
+      <c r="G74">
+        <v>-0.007396608762970992</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1210531618777574</v>
+        <v>-0.1135383513893354</v>
       </c>
       <c r="C75">
-        <v>0.02581959034955601</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02633771577614814</v>
+      </c>
+      <c r="D75">
+        <v>-0.005284665010982389</v>
+      </c>
+      <c r="E75">
+        <v>0.09084656878222552</v>
+      </c>
+      <c r="F75">
+        <v>-0.1711657618431981</v>
+      </c>
+      <c r="G75">
+        <v>-0.01401459276316292</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07818378270941397</v>
+        <v>-0.08594766443885821</v>
       </c>
       <c r="C77">
-        <v>0.1243216844564206</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1298193872148018</v>
+      </c>
+      <c r="D77">
+        <v>-0.03602614732842563</v>
+      </c>
+      <c r="E77">
+        <v>-0.09720515023986097</v>
+      </c>
+      <c r="F77">
+        <v>0.05922323082999856</v>
+      </c>
+      <c r="G77">
+        <v>-0.1118613255172158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07525298697776667</v>
+        <v>-0.08200825588538323</v>
       </c>
       <c r="C78">
-        <v>0.1286692298191361</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1307070752274431</v>
+      </c>
+      <c r="D78">
+        <v>-0.02449515258839345</v>
+      </c>
+      <c r="E78">
+        <v>-0.09994161349496346</v>
+      </c>
+      <c r="F78">
+        <v>-0.06126949273418292</v>
+      </c>
+      <c r="G78">
+        <v>-0.01850283752181559</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1688614174802024</v>
+        <v>-0.1643054136466658</v>
       </c>
       <c r="C79">
-        <v>0.02012504976503433</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.01974658711684706</v>
+      </c>
+      <c r="D79">
+        <v>-0.0005366991377859797</v>
+      </c>
+      <c r="E79">
+        <v>0.07118759036922263</v>
+      </c>
+      <c r="F79">
+        <v>-0.1452252675280466</v>
+      </c>
+      <c r="G79">
+        <v>-0.02963141158262001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.078481360782879</v>
+        <v>-0.07427098601819075</v>
       </c>
       <c r="C80">
-        <v>0.08429485812841332</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.08012025964693015</v>
+      </c>
+      <c r="D80">
+        <v>-0.006728227991177714</v>
+      </c>
+      <c r="E80">
+        <v>-0.05251357913048366</v>
+      </c>
+      <c r="F80">
+        <v>0.07328253668141177</v>
+      </c>
+      <c r="G80">
+        <v>0.09678014635768123</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1137559494030934</v>
+        <v>-0.1067027730914025</v>
       </c>
       <c r="C81">
-        <v>-0.01237573191850421</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.01165696750100959</v>
+      </c>
+      <c r="D81">
+        <v>0.01730836436374753</v>
+      </c>
+      <c r="E81">
+        <v>0.1111060505428967</v>
+      </c>
+      <c r="F81">
+        <v>-0.149775801814873</v>
+      </c>
+      <c r="G81">
+        <v>0.03536301533237086</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1627026534006558</v>
+        <v>-0.1582402969387939</v>
       </c>
       <c r="C82">
-        <v>-0.01740461743151621</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01499755705308786</v>
+      </c>
+      <c r="D82">
+        <v>-0.08240586698346111</v>
+      </c>
+      <c r="E82">
+        <v>0.1469304770189962</v>
+      </c>
+      <c r="F82">
+        <v>-0.1235460361801287</v>
+      </c>
+      <c r="G82">
+        <v>-0.0345010235835911</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05392585891665298</v>
+        <v>-0.05077446754300038</v>
       </c>
       <c r="C83">
-        <v>0.06404751869563775</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.0583073519622925</v>
+      </c>
+      <c r="D83">
+        <v>0.03295468247917217</v>
+      </c>
+      <c r="E83">
+        <v>-0.00583496204034557</v>
+      </c>
+      <c r="F83">
+        <v>0.0191757227267022</v>
+      </c>
+      <c r="G83">
+        <v>-0.002013914383386261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04600677633054763</v>
+        <v>-0.04507571759967959</v>
       </c>
       <c r="C84">
-        <v>0.07196084098286462</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07049457639178225</v>
+      </c>
+      <c r="D84">
+        <v>0.02108659945507068</v>
+      </c>
+      <c r="E84">
+        <v>0.007001452690062428</v>
+      </c>
+      <c r="F84">
+        <v>-0.03132122805125363</v>
+      </c>
+      <c r="G84">
+        <v>-0.02186444832124244</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1400022960550134</v>
+        <v>-0.1350070804039739</v>
       </c>
       <c r="C85">
-        <v>0.007571693885194759</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.00819720864221108</v>
+      </c>
+      <c r="D85">
+        <v>-0.06915113972406668</v>
+      </c>
+      <c r="E85">
+        <v>0.06757301296617899</v>
+      </c>
+      <c r="F85">
+        <v>-0.1494905110585745</v>
+      </c>
+      <c r="G85">
+        <v>-0.03576602176621975</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08504361032876212</v>
+        <v>-0.0853327002814715</v>
       </c>
       <c r="C86">
-        <v>0.1471485037159671</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1540213925069162</v>
+      </c>
+      <c r="D86">
+        <v>0.5227001870487467</v>
+      </c>
+      <c r="E86">
+        <v>-0.4630112858727023</v>
+      </c>
+      <c r="F86">
+        <v>-0.2612313821025369</v>
+      </c>
+      <c r="G86">
+        <v>0.4770611616671249</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.088869871358526</v>
+        <v>-0.08425372064621613</v>
       </c>
       <c r="C87">
-        <v>0.1089054344199993</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.1049599174870706</v>
+      </c>
+      <c r="D87">
+        <v>-0.1253494871864528</v>
+      </c>
+      <c r="E87">
+        <v>-0.1012909908464931</v>
+      </c>
+      <c r="F87">
+        <v>0.2101941525721296</v>
+      </c>
+      <c r="G87">
+        <v>-0.02718133447636133</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.05938512862538801</v>
+        <v>-0.05888170364562387</v>
       </c>
       <c r="C88">
-        <v>0.0634474627957454</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06417194045552707</v>
+      </c>
+      <c r="D88">
+        <v>-0.002680104009768363</v>
+      </c>
+      <c r="E88">
+        <v>0.03164113282709301</v>
+      </c>
+      <c r="F88">
+        <v>-0.03099309287800826</v>
+      </c>
+      <c r="G88">
+        <v>-0.01893106893519454</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1538735420839952</v>
+        <v>-0.1529447764441522</v>
       </c>
       <c r="C89">
-        <v>-0.198278878096094</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2051998935186713</v>
+      </c>
+      <c r="D89">
+        <v>-0.02549128488126068</v>
+      </c>
+      <c r="E89">
+        <v>-0.1029814847902177</v>
+      </c>
+      <c r="F89">
+        <v>0.06038423137065541</v>
+      </c>
+      <c r="G89">
+        <v>-0.01155523820824732</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1868818084085761</v>
+        <v>-0.1888135431592835</v>
       </c>
       <c r="C90">
-        <v>-0.2329985336934317</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.2332205798912846</v>
+      </c>
+      <c r="D90">
+        <v>-0.02429346588593128</v>
+      </c>
+      <c r="E90">
+        <v>-0.1861321468229118</v>
+      </c>
+      <c r="F90">
+        <v>0.1131359369717643</v>
+      </c>
+      <c r="G90">
+        <v>-0.0212941133609025</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1270974606691965</v>
+        <v>-0.1206695692993399</v>
       </c>
       <c r="C91">
-        <v>-0.02213978901129149</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.02111228966621855</v>
+      </c>
+      <c r="D91">
+        <v>0.03738716445323993</v>
+      </c>
+      <c r="E91">
+        <v>0.1326345806473284</v>
+      </c>
+      <c r="F91">
+        <v>-0.1704626164914471</v>
+      </c>
+      <c r="G91">
+        <v>0.04822447140050221</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1739072370899979</v>
+        <v>-0.1751654191532389</v>
       </c>
       <c r="C92">
-        <v>-0.2560637037150784</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2664642082755481</v>
+      </c>
+      <c r="D92">
+        <v>-0.003618402288599553</v>
+      </c>
+      <c r="E92">
+        <v>-0.213737269627378</v>
+      </c>
+      <c r="F92">
+        <v>0.04452326100036067</v>
+      </c>
+      <c r="G92">
+        <v>-0.03015432612661886</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1797330653246589</v>
+        <v>-0.1863219858921678</v>
       </c>
       <c r="C93">
-        <v>-0.2219647558673893</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.2234751647189169</v>
+      </c>
+      <c r="D93">
+        <v>0.01169190952654177</v>
+      </c>
+      <c r="E93">
+        <v>-0.1162333527184189</v>
+      </c>
+      <c r="F93">
+        <v>0.01890649824309924</v>
+      </c>
+      <c r="G93">
+        <v>-0.04798981599480989</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1188883855918401</v>
+        <v>-0.1135958359893317</v>
       </c>
       <c r="C94">
-        <v>0.03266798837324168</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03249950392022352</v>
+      </c>
+      <c r="D94">
+        <v>-0.003575846280297094</v>
+      </c>
+      <c r="E94">
+        <v>0.08262133673997324</v>
+      </c>
+      <c r="F94">
+        <v>-0.1579627052271067</v>
+      </c>
+      <c r="G94">
+        <v>-0.008820246914832203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1194590761065391</v>
+        <v>-0.1185735969752843</v>
       </c>
       <c r="C95">
-        <v>0.1076980175991648</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1182212785918581</v>
+      </c>
+      <c r="D95">
+        <v>6.005506028370359e-05</v>
+      </c>
+      <c r="E95">
+        <v>-0.08458400086511753</v>
+      </c>
+      <c r="F95">
+        <v>0.01037239496346194</v>
+      </c>
+      <c r="G95">
+        <v>-0.005290870384937638</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1164346958974653</v>
+        <v>-0.1146158968954134</v>
       </c>
       <c r="C96">
-        <v>0.121310472895154</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1243350958813297</v>
+      </c>
+      <c r="D96">
+        <v>0.0431590885962041</v>
+      </c>
+      <c r="E96">
+        <v>0.01615800375276447</v>
+      </c>
+      <c r="F96">
+        <v>0.02126987982990808</v>
+      </c>
+      <c r="G96">
+        <v>-0.1369263925192408</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.2033022224096317</v>
+        <v>-0.2075061337681177</v>
       </c>
       <c r="C97">
-        <v>0.0008120136402183273</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>0.005595543817943387</v>
+      </c>
+      <c r="D97">
+        <v>0.03576153500949556</v>
+      </c>
+      <c r="E97">
+        <v>0.4367844825489249</v>
+      </c>
+      <c r="F97">
+        <v>0.4343591127543867</v>
+      </c>
+      <c r="G97">
+        <v>0.655679903734724</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1961250664765682</v>
+        <v>-0.2039874902467564</v>
       </c>
       <c r="C98">
-        <v>0.02277113036419005</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.02389809537416459</v>
+      </c>
+      <c r="D98">
+        <v>0.07451685117744986</v>
+      </c>
+      <c r="E98">
+        <v>0.05877010695737465</v>
+      </c>
+      <c r="F98">
+        <v>0.1906336314149376</v>
+      </c>
+      <c r="G98">
+        <v>-0.04360967792048085</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.05041179551718411</v>
+        <v>-0.05026910649402051</v>
       </c>
       <c r="C99">
-        <v>0.05951668846789199</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05945751630896081</v>
+      </c>
+      <c r="D99">
+        <v>-0.01785626913745512</v>
+      </c>
+      <c r="E99">
+        <v>-0.02889804029738295</v>
+      </c>
+      <c r="F99">
+        <v>0.0193948357327623</v>
+      </c>
+      <c r="G99">
+        <v>-0.003989869524603872</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.1057688518302641</v>
+        <v>-0.1020786105835789</v>
       </c>
       <c r="C100">
-        <v>0.3019808203392451</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2907084714836142</v>
+      </c>
+      <c r="D100">
+        <v>-0.001369663102209203</v>
+      </c>
+      <c r="E100">
+        <v>-0.05823495328554106</v>
+      </c>
+      <c r="F100">
+        <v>0.3759635937703248</v>
+      </c>
+      <c r="G100">
+        <v>-0.1446630168000733</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02573086062287053</v>
+        <v>-0.02711585593926451</v>
       </c>
       <c r="C101">
-        <v>0.05452978379880229</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05458196603601909</v>
+      </c>
+      <c r="D101">
+        <v>-0.006679846128044221</v>
+      </c>
+      <c r="E101">
+        <v>-0.06836322948810886</v>
+      </c>
+      <c r="F101">
+        <v>-0.0071764688639339</v>
+      </c>
+      <c r="G101">
+        <v>0.009773949952583362</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
